--- a/biology/Histoire de la zoologie et de la botanique/Walter_Bradford_Barrows/Walter_Bradford_Barrows.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Walter_Bradford_Barrows/Walter_Bradford_Barrows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Bradford Barrows est un ornithologue américain, né le 10 janvier 1855 à Wellesley (Massachusetts) et mort le 26 février 1923 à East Lansing (Michigan).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, William Barrows, est un prêtre congrégationaliste et un écrivain et sa mère, Elisabeth Adams née Cate, enseigne au Bradford College et dirige le séminaire féminin du Wheaton College. Son père, grand pêcheur et chasseur, transmet à ses fils le goût de la nature et les encourage à passer leur temps à explorer la campagne environnante. Le jeune Walter commence à collectionner des œufs d’oiseaux à 14 ans. À seulement 15 ans, il s’initie à la taxidermie.
 Barrows obtient son Bachelor of Sciences en 1876 et commence à travaille dans une entreprise de commerce de spécimens d’histoire naturelle de Rochester (New York). Il démissionne trois ans plus tard pour accepter un poste de professeur de physique et de chimie au Colegio Nacional à Concepción del Uruguay. Il consacre ses loisirs dans des excusions dans la pampa où il récolte près de deux cents espèces. En janvier 1881, il fait partie d’une mission commissionnée par le gouvernement de l’Argentine pour étudier la faune et la flore de la pampa de l’extrême sud de la province de Buenos Aires. Cette expédition dure dix semaines et parcourt plus de 1 200 km.  Il fait paraître ses observations ornithologiques qu’il réalise alors en 1883 et 1884.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A.K. Fisher (1925). Walter Bradford Barrows, The Auk, 62, 1 : 1-14.</t>
         </is>
